--- a/data/2014 IP MASTERLIST.xlsx
+++ b/data/2014 IP MASTERLIST.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\ip_dashboard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24CEA92-6C39-442F-8902-518A13766D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1F1633-82CF-46AE-ACA1-5D482593372C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="111">
   <si>
     <t>IPRO file number</t>
   </si>
@@ -226,9 +226,6 @@
     <t>IPA Journal</t>
   </si>
   <si>
-    <t>2014, Annually</t>
-  </si>
-  <si>
     <t>2423-1681</t>
   </si>
   <si>
@@ -350,6 +347,15 @@
   </si>
   <si>
     <t>College/Center</t>
+  </si>
+  <si>
+    <t>Authour</t>
+  </si>
+  <si>
+    <t>Starting Date</t>
+  </si>
+  <si>
+    <t>Annually</t>
   </si>
 </sst>
 </file>
@@ -479,7 +485,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -539,13 +545,14 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="1" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="1" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -773,7 +780,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1" sqref="K1:S1048576"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -791,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C1" s="22" t="s">
         <v>1</v>
@@ -3797,11 +3804,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I128"/>
+  <dimension ref="A1:K128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3810,17 +3817,18 @@
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="16" style="24" customWidth="1"/>
     <col min="4" max="4" width="23.6640625" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="24"/>
+    <col min="5" max="6" width="23.6640625" style="39" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" customWidth="1"/>
     <col min="9" max="9" width="12.6640625" style="24"/>
+    <col min="11" max="11" width="12.6640625" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C1" s="22" t="s">
         <v>1</v>
@@ -3829,22 +3837,28 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="I1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="K1" s="21" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>65</v>
       </c>
@@ -3855,691 +3869,927 @@
       <c r="D2" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="26">
-        <v>41984</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>68</v>
-      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10">
+        <v>2014</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="H2" s="8"/>
       <c r="I2" s="26">
         <v>41984</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J2" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2" s="26">
+        <v>41984</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C3" s="29"/>
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
-      <c r="G3" s="29"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="I3" s="29"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4"/>
       <c r="D4" s="24"/>
-      <c r="G4"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
       <c r="I4"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K4"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5"/>
       <c r="D5" s="24"/>
-      <c r="G5"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
       <c r="I5"/>
-    </row>
-    <row r="6" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="K5"/>
+    </row>
+    <row r="6" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C6"/>
       <c r="D6" s="24"/>
-      <c r="G6"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
       <c r="I6"/>
-    </row>
-    <row r="7" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="K6"/>
+    </row>
+    <row r="7" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C7"/>
       <c r="D7" s="24"/>
-      <c r="G7"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
       <c r="I7"/>
-    </row>
-    <row r="8" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="K7"/>
+    </row>
+    <row r="8" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C8"/>
       <c r="D8" s="24"/>
-      <c r="G8"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
       <c r="I8"/>
-    </row>
-    <row r="9" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="K8"/>
+    </row>
+    <row r="9" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C9"/>
       <c r="D9" s="24"/>
-      <c r="G9"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
       <c r="I9"/>
-    </row>
-    <row r="10" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="K9"/>
+    </row>
+    <row r="10" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C10"/>
       <c r="D10" s="24"/>
-      <c r="G10"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
       <c r="I10"/>
-    </row>
-    <row r="11" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="K10"/>
+    </row>
+    <row r="11" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C11"/>
       <c r="D11" s="24"/>
-      <c r="G11"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
       <c r="I11"/>
-    </row>
-    <row r="12" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="K11"/>
+    </row>
+    <row r="12" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C12"/>
       <c r="D12" s="24"/>
-      <c r="G12"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
       <c r="I12"/>
-    </row>
-    <row r="13" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="K12"/>
+    </row>
+    <row r="13" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C13" s="29"/>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
-      <c r="G13" s="29"/>
-    </row>
-    <row r="14" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="I13" s="29"/>
+    </row>
+    <row r="14" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C14" s="29"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
-      <c r="G14" s="29"/>
-    </row>
-    <row r="15" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="I14" s="29"/>
+    </row>
+    <row r="15" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C15" s="29"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
-      <c r="G15" s="29"/>
-    </row>
-    <row r="16" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="I15" s="29"/>
+    </row>
+    <row r="16" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C16" s="29"/>
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
-      <c r="G16" s="29"/>
-    </row>
-    <row r="17" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="I16" s="29"/>
+    </row>
+    <row r="17" spans="3:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C17" s="29"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
-      <c r="G17" s="29"/>
-    </row>
-    <row r="18" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="I17" s="29"/>
+    </row>
+    <row r="18" spans="3:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C18" s="29"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
-      <c r="G18" s="29"/>
-    </row>
-    <row r="19" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="I18" s="29"/>
+    </row>
+    <row r="19" spans="3:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C19" s="29"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
-      <c r="G19" s="29"/>
-    </row>
-    <row r="20" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="I19" s="29"/>
+    </row>
+    <row r="20" spans="3:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C20" s="29"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
-      <c r="G20" s="29"/>
-    </row>
-    <row r="21" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="I20" s="29"/>
+    </row>
+    <row r="21" spans="3:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C21" s="29"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
-      <c r="G21" s="29"/>
-    </row>
-    <row r="22" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="I21" s="29"/>
+    </row>
+    <row r="22" spans="3:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C22" s="29"/>
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
-      <c r="G22" s="29"/>
-    </row>
-    <row r="23" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="I22" s="29"/>
+    </row>
+    <row r="23" spans="3:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C23" s="29"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
-      <c r="G23" s="29"/>
-    </row>
-    <row r="24" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="I23" s="29"/>
+    </row>
+    <row r="24" spans="3:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C24" s="29"/>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
-    </row>
-    <row r="25" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+    </row>
+    <row r="25" spans="3:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C25" s="29"/>
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
-    </row>
-    <row r="26" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+    </row>
+    <row r="26" spans="3:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C26" s="29"/>
       <c r="D26" s="15"/>
       <c r="E26" s="15"/>
-    </row>
-    <row r="27" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+    </row>
+    <row r="27" spans="3:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C27" s="29"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
-    </row>
-    <row r="28" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+    </row>
+    <row r="28" spans="3:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C28" s="29"/>
       <c r="D28" s="15"/>
       <c r="E28" s="15"/>
-    </row>
-    <row r="29" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+    </row>
+    <row r="29" spans="3:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C29" s="29"/>
       <c r="D29" s="15"/>
       <c r="E29" s="15"/>
-    </row>
-    <row r="30" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+    </row>
+    <row r="30" spans="3:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C30" s="29"/>
       <c r="D30" s="15"/>
       <c r="E30" s="15"/>
-    </row>
-    <row r="31" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+    </row>
+    <row r="31" spans="3:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C31" s="29"/>
       <c r="D31" s="15"/>
       <c r="E31" s="15"/>
-    </row>
-    <row r="32" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+    </row>
+    <row r="32" spans="3:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C32" s="29"/>
       <c r="D32" s="15"/>
       <c r="E32" s="15"/>
-    </row>
-    <row r="33" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+    </row>
+    <row r="33" spans="3:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C33" s="29"/>
       <c r="D33" s="15"/>
       <c r="E33" s="15"/>
-    </row>
-    <row r="34" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+    </row>
+    <row r="34" spans="3:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C34" s="29"/>
       <c r="D34" s="15"/>
       <c r="E34" s="15"/>
-      <c r="G34" s="29"/>
-    </row>
-    <row r="35" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="I34" s="29"/>
+    </row>
+    <row r="35" spans="3:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C35" s="29"/>
       <c r="D35" s="15"/>
       <c r="E35" s="15"/>
-      <c r="G35" s="29"/>
-    </row>
-    <row r="36" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="I35" s="29"/>
+    </row>
+    <row r="36" spans="3:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C36" s="29"/>
       <c r="D36" s="15"/>
       <c r="E36" s="15"/>
-      <c r="G36" s="30"/>
-    </row>
-    <row r="37" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="I36" s="30"/>
+    </row>
+    <row r="37" spans="3:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C37" s="29"/>
       <c r="D37" s="15"/>
       <c r="E37" s="15"/>
-      <c r="G37" s="29"/>
-    </row>
-    <row r="38" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="I37" s="29"/>
+    </row>
+    <row r="38" spans="3:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C38" s="29"/>
       <c r="D38" s="15"/>
       <c r="E38" s="15"/>
-      <c r="G38" s="29"/>
-    </row>
-    <row r="39" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="I38" s="29"/>
+    </row>
+    <row r="39" spans="3:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C39" s="29"/>
       <c r="D39" s="15"/>
       <c r="E39" s="15"/>
-      <c r="G39" s="29"/>
-    </row>
-    <row r="40" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="I39" s="29"/>
+    </row>
+    <row r="40" spans="3:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C40" s="29"/>
       <c r="D40" s="15"/>
       <c r="E40" s="15"/>
-      <c r="G40" s="29"/>
-    </row>
-    <row r="41" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="I40" s="29"/>
+    </row>
+    <row r="41" spans="3:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C41" s="29"/>
       <c r="D41" s="15"/>
       <c r="E41" s="15"/>
-      <c r="G41" s="29"/>
-    </row>
-    <row r="42" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="I41" s="29"/>
+    </row>
+    <row r="42" spans="3:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C42" s="29"/>
       <c r="D42" s="15"/>
       <c r="E42" s="15"/>
-      <c r="G42" s="29"/>
-    </row>
-    <row r="43" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="I42" s="29"/>
+    </row>
+    <row r="43" spans="3:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C43" s="29"/>
       <c r="D43" s="15"/>
       <c r="E43" s="15"/>
-      <c r="G43" s="29"/>
-    </row>
-    <row r="44" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="I43" s="29"/>
+    </row>
+    <row r="44" spans="3:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C44" s="29"/>
       <c r="D44" s="15"/>
       <c r="E44" s="15"/>
-      <c r="G44" s="29"/>
-    </row>
-    <row r="45" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="I44" s="29"/>
+    </row>
+    <row r="45" spans="3:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C45" s="29"/>
       <c r="D45" s="15"/>
       <c r="E45" s="15"/>
-      <c r="G45" s="29"/>
-    </row>
-    <row r="46" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="I45" s="29"/>
+    </row>
+    <row r="46" spans="3:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C46" s="29"/>
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
-      <c r="G46" s="29"/>
-    </row>
-    <row r="47" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="I46" s="29"/>
+    </row>
+    <row r="47" spans="3:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C47" s="29"/>
       <c r="D47" s="15"/>
       <c r="E47" s="15"/>
-      <c r="G47" s="29"/>
-    </row>
-    <row r="48" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="I47" s="29"/>
+    </row>
+    <row r="48" spans="3:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C48" s="29"/>
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
-      <c r="G48" s="29"/>
-    </row>
-    <row r="49" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="I48" s="29"/>
+    </row>
+    <row r="49" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C49" s="29"/>
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
-      <c r="G49" s="29"/>
-    </row>
-    <row r="50" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="I49" s="29"/>
+    </row>
+    <row r="50" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C50" s="29"/>
       <c r="D50" s="15"/>
       <c r="E50" s="15"/>
-      <c r="G50" s="29"/>
-    </row>
-    <row r="51" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="I50" s="29"/>
+    </row>
+    <row r="51" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C51" s="29"/>
       <c r="D51" s="15"/>
       <c r="E51" s="15"/>
-      <c r="G51" s="29"/>
-    </row>
-    <row r="52" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="I51" s="29"/>
+    </row>
+    <row r="52" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C52" s="29"/>
       <c r="D52" s="15"/>
       <c r="E52" s="15"/>
-      <c r="G52" s="29"/>
-    </row>
-    <row r="53" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="I52" s="29"/>
+    </row>
+    <row r="53" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C53" s="29"/>
       <c r="D53" s="15"/>
       <c r="E53" s="15"/>
-      <c r="G53" s="29"/>
-    </row>
-    <row r="54" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="I53" s="29"/>
+    </row>
+    <row r="54" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C54" s="29"/>
       <c r="D54" s="15"/>
       <c r="E54" s="15"/>
-      <c r="G54" s="29"/>
-    </row>
-    <row r="55" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A55" s="39"/>
-      <c r="B55" s="39"/>
-      <c r="C55" s="40"/>
-      <c r="D55" s="40"/>
-      <c r="E55" s="40"/>
-      <c r="F55" s="40"/>
-      <c r="G55" s="40"/>
-      <c r="H55" s="40"/>
-    </row>
-    <row r="56" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="I54" s="29"/>
+    </row>
+    <row r="55" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A55" s="43"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="44"/>
+      <c r="D55" s="44"/>
+      <c r="E55" s="44"/>
+      <c r="F55" s="44"/>
+      <c r="G55" s="44"/>
+      <c r="H55" s="44"/>
+      <c r="I55" s="44"/>
+      <c r="J55" s="44"/>
+    </row>
+    <row r="56" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C56" s="29"/>
       <c r="D56" s="15"/>
       <c r="E56" s="15"/>
-      <c r="G56" s="29"/>
-    </row>
-    <row r="57" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="I56" s="29"/>
+    </row>
+    <row r="57" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C57" s="29"/>
       <c r="D57" s="15"/>
       <c r="E57" s="15"/>
-      <c r="G57" s="29"/>
-    </row>
-    <row r="58" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="I57" s="29"/>
+    </row>
+    <row r="58" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C58" s="29"/>
       <c r="D58" s="15"/>
       <c r="E58" s="15"/>
-      <c r="G58" s="29"/>
-    </row>
-    <row r="59" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="I58" s="29"/>
+    </row>
+    <row r="59" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C59" s="29"/>
       <c r="D59" s="15"/>
       <c r="E59" s="15"/>
-      <c r="G59" s="29"/>
-    </row>
-    <row r="60" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="I59" s="29"/>
+    </row>
+    <row r="60" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C60" s="29"/>
       <c r="D60" s="15"/>
       <c r="E60" s="15"/>
-      <c r="G60" s="29"/>
-    </row>
-    <row r="61" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
+      <c r="I60" s="29"/>
+    </row>
+    <row r="61" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C61" s="29"/>
       <c r="D61" s="15"/>
       <c r="E61" s="15"/>
-      <c r="G61" s="29"/>
-    </row>
-    <row r="62" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="I61" s="29"/>
+    </row>
+    <row r="62" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C62" s="29"/>
       <c r="D62" s="15"/>
-    </row>
-    <row r="63" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+    </row>
+    <row r="63" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C63" s="29"/>
       <c r="D63" s="15"/>
       <c r="E63" s="15"/>
-    </row>
-    <row r="64" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+    </row>
+    <row r="64" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C64" s="29"/>
       <c r="D64" s="15"/>
       <c r="E64" s="15"/>
-    </row>
-    <row r="65" spans="3:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F64" s="15"/>
+      <c r="G64" s="15"/>
+    </row>
+    <row r="65" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C65" s="29"/>
       <c r="D65" s="15"/>
       <c r="E65" s="15"/>
-    </row>
-    <row r="66" spans="3:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F65" s="15"/>
+      <c r="G65" s="15"/>
+    </row>
+    <row r="66" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C66" s="29"/>
       <c r="D66" s="15"/>
       <c r="E66" s="15"/>
-    </row>
-    <row r="67" spans="3:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
+    </row>
+    <row r="67" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C67" s="29"/>
       <c r="D67" s="15"/>
       <c r="E67" s="15"/>
-    </row>
-    <row r="68" spans="3:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F67" s="15"/>
+      <c r="G67" s="15"/>
+    </row>
+    <row r="68" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C68" s="29"/>
       <c r="D68" s="15"/>
       <c r="E68" s="15"/>
-    </row>
-    <row r="69" spans="3:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F68" s="15"/>
+      <c r="G68" s="15"/>
+    </row>
+    <row r="69" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C69" s="29"/>
       <c r="D69" s="15"/>
       <c r="E69" s="15"/>
-    </row>
-    <row r="70" spans="3:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
+    </row>
+    <row r="70" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C70" s="29"/>
       <c r="D70" s="15"/>
       <c r="E70" s="15"/>
-    </row>
-    <row r="71" spans="3:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F70" s="15"/>
+      <c r="G70" s="15"/>
+    </row>
+    <row r="71" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C71" s="29"/>
       <c r="D71" s="15"/>
       <c r="E71" s="15"/>
-    </row>
-    <row r="72" spans="3:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F71" s="15"/>
+      <c r="G71" s="15"/>
+    </row>
+    <row r="72" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C72" s="29"/>
       <c r="D72" s="15"/>
       <c r="E72" s="15"/>
-    </row>
-    <row r="73" spans="3:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F72" s="15"/>
+      <c r="G72" s="15"/>
+    </row>
+    <row r="73" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C73" s="29"/>
       <c r="D73" s="15"/>
       <c r="E73" s="15"/>
-    </row>
-    <row r="74" spans="3:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F73" s="15"/>
+      <c r="G73" s="15"/>
+    </row>
+    <row r="74" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C74" s="29"/>
       <c r="D74" s="15"/>
       <c r="E74" s="15"/>
-    </row>
-    <row r="75" spans="3:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F74" s="15"/>
+      <c r="G74" s="15"/>
+    </row>
+    <row r="75" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C75" s="29"/>
       <c r="D75" s="15"/>
       <c r="E75" s="15"/>
-    </row>
-    <row r="76" spans="3:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F75" s="15"/>
+      <c r="G75" s="15"/>
+    </row>
+    <row r="76" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C76" s="29"/>
       <c r="D76" s="15"/>
       <c r="E76" s="15"/>
-    </row>
-    <row r="77" spans="3:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F76" s="15"/>
+      <c r="G76" s="15"/>
+    </row>
+    <row r="77" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C77" s="29"/>
       <c r="D77" s="15"/>
       <c r="E77" s="15"/>
-    </row>
-    <row r="78" spans="3:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F77" s="15"/>
+      <c r="G77" s="15"/>
+    </row>
+    <row r="78" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C78" s="29"/>
       <c r="D78" s="15"/>
       <c r="E78" s="15"/>
-    </row>
-    <row r="79" spans="3:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F78" s="15"/>
+      <c r="G78" s="15"/>
+    </row>
+    <row r="79" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C79" s="29"/>
       <c r="D79" s="15"/>
       <c r="E79" s="15"/>
-    </row>
-    <row r="80" spans="3:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F79" s="15"/>
+      <c r="G79" s="15"/>
+    </row>
+    <row r="80" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C80" s="29"/>
       <c r="D80" s="15"/>
       <c r="E80" s="15"/>
-    </row>
-    <row r="81" spans="3:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F80" s="15"/>
+      <c r="G80" s="15"/>
+    </row>
+    <row r="81" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C81" s="29"/>
       <c r="D81" s="15"/>
       <c r="E81" s="15"/>
-    </row>
-    <row r="82" spans="3:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F81" s="15"/>
+      <c r="G81" s="15"/>
+    </row>
+    <row r="82" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C82" s="29"/>
       <c r="D82" s="15"/>
       <c r="E82" s="15"/>
-    </row>
-    <row r="83" spans="3:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F82" s="15"/>
+      <c r="G82" s="15"/>
+    </row>
+    <row r="83" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C83" s="29"/>
       <c r="D83" s="15"/>
       <c r="E83" s="15"/>
-    </row>
-    <row r="84" spans="3:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F83" s="15"/>
+      <c r="G83" s="15"/>
+    </row>
+    <row r="84" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C84" s="29"/>
       <c r="D84" s="15"/>
       <c r="E84" s="15"/>
-    </row>
-    <row r="85" spans="3:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F84" s="15"/>
+      <c r="G84" s="15"/>
+    </row>
+    <row r="85" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C85" s="29"/>
       <c r="D85" s="15"/>
       <c r="E85" s="15"/>
-    </row>
-    <row r="86" spans="3:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F85" s="15"/>
+      <c r="G85" s="15"/>
+    </row>
+    <row r="86" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C86" s="29"/>
       <c r="D86" s="15"/>
       <c r="E86" s="15"/>
-    </row>
-    <row r="87" spans="3:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F86" s="15"/>
+      <c r="G86" s="15"/>
+    </row>
+    <row r="87" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C87" s="29"/>
       <c r="D87" s="15"/>
       <c r="E87" s="15"/>
-    </row>
-    <row r="88" spans="3:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F87" s="15"/>
+      <c r="G87" s="15"/>
+    </row>
+    <row r="88" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C88" s="29"/>
       <c r="D88" s="15"/>
       <c r="E88" s="15"/>
-    </row>
-    <row r="89" spans="3:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F88" s="15"/>
+      <c r="G88" s="15"/>
+    </row>
+    <row r="89" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C89" s="29"/>
       <c r="D89" s="15"/>
       <c r="E89" s="15"/>
-    </row>
-    <row r="90" spans="3:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F89" s="15"/>
+      <c r="G89" s="15"/>
+    </row>
+    <row r="90" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C90" s="29"/>
       <c r="D90" s="15"/>
       <c r="E90" s="15"/>
-    </row>
-    <row r="91" spans="3:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F90" s="15"/>
+      <c r="G90" s="15"/>
+    </row>
+    <row r="91" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C91" s="29"/>
       <c r="D91" s="15"/>
       <c r="E91" s="15"/>
-    </row>
-    <row r="92" spans="3:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F91" s="15"/>
+      <c r="G91" s="15"/>
+    </row>
+    <row r="92" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C92" s="29"/>
       <c r="D92" s="15"/>
       <c r="E92" s="15"/>
-    </row>
-    <row r="93" spans="3:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F92" s="15"/>
+      <c r="G92" s="15"/>
+    </row>
+    <row r="93" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C93" s="29"/>
       <c r="D93" s="15"/>
       <c r="E93" s="15"/>
-    </row>
-    <row r="94" spans="3:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F93" s="15"/>
+      <c r="G93" s="15"/>
+    </row>
+    <row r="94" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C94" s="29"/>
       <c r="D94" s="15"/>
       <c r="E94" s="15"/>
-    </row>
-    <row r="95" spans="3:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F94" s="15"/>
+      <c r="G94" s="15"/>
+    </row>
+    <row r="95" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C95" s="29"/>
       <c r="D95" s="15"/>
       <c r="E95" s="15"/>
-    </row>
-    <row r="96" spans="3:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F95" s="15"/>
+      <c r="G95" s="15"/>
+    </row>
+    <row r="96" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C96" s="29"/>
       <c r="D96" s="15"/>
       <c r="E96" s="15"/>
-    </row>
-    <row r="97" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F96" s="15"/>
+      <c r="G96" s="15"/>
+    </row>
+    <row r="97" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C97" s="29"/>
       <c r="D97" s="15"/>
       <c r="E97" s="15"/>
-    </row>
-    <row r="98" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F97" s="15"/>
+      <c r="G97" s="15"/>
+    </row>
+    <row r="98" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C98" s="29"/>
       <c r="D98" s="15"/>
       <c r="E98" s="15"/>
-    </row>
-    <row r="99" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A99" s="39"/>
-      <c r="B99" s="39"/>
-      <c r="C99" s="40"/>
-      <c r="D99" s="40"/>
-      <c r="E99" s="40"/>
-      <c r="F99" s="40"/>
-      <c r="G99" s="40"/>
-      <c r="H99" s="40"/>
-    </row>
-    <row r="100" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F98" s="15"/>
+      <c r="G98" s="15"/>
+    </row>
+    <row r="99" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A99" s="43"/>
+      <c r="B99" s="43"/>
+      <c r="C99" s="44"/>
+      <c r="D99" s="44"/>
+      <c r="E99" s="44"/>
+      <c r="F99" s="44"/>
+      <c r="G99" s="44"/>
+      <c r="H99" s="44"/>
+      <c r="I99" s="44"/>
+      <c r="J99" s="44"/>
+    </row>
+    <row r="100" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C100" s="29"/>
       <c r="D100" s="15"/>
       <c r="E100" s="15"/>
-    </row>
-    <row r="101" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F100" s="15"/>
+      <c r="G100" s="15"/>
+    </row>
+    <row r="101" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C101" s="29"/>
       <c r="D101" s="15"/>
       <c r="E101" s="15"/>
-    </row>
-    <row r="102" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F101" s="15"/>
+      <c r="G101" s="15"/>
+    </row>
+    <row r="102" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C102" s="29"/>
       <c r="D102" s="15"/>
       <c r="E102" s="15"/>
-    </row>
-    <row r="103" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F102" s="15"/>
+      <c r="G102" s="15"/>
+    </row>
+    <row r="103" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C103" s="29"/>
       <c r="D103" s="15"/>
       <c r="E103" s="15"/>
-    </row>
-    <row r="104" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F103" s="15"/>
+      <c r="G103" s="15"/>
+    </row>
+    <row r="104" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C104" s="29"/>
       <c r="D104" s="15"/>
       <c r="E104" s="15"/>
-    </row>
-    <row r="105" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F104" s="15"/>
+      <c r="G104" s="15"/>
+    </row>
+    <row r="105" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C105" s="29"/>
       <c r="D105" s="15"/>
       <c r="E105" s="15"/>
-    </row>
-    <row r="106" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F105" s="15"/>
+      <c r="G105" s="15"/>
+    </row>
+    <row r="106" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C106" s="29"/>
       <c r="D106" s="15"/>
       <c r="E106" s="15"/>
-    </row>
-    <row r="107" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F106" s="15"/>
+      <c r="G106" s="15"/>
+    </row>
+    <row r="107" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C107" s="29"/>
       <c r="D107" s="15"/>
       <c r="E107" s="15"/>
-    </row>
-    <row r="108" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F107" s="15"/>
+      <c r="G107" s="15"/>
+    </row>
+    <row r="108" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C108" s="29"/>
       <c r="D108" s="15"/>
       <c r="E108" s="15"/>
-    </row>
-    <row r="109" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F108" s="15"/>
+      <c r="G108" s="15"/>
+    </row>
+    <row r="109" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C109" s="29"/>
       <c r="D109" s="15"/>
       <c r="E109" s="15"/>
-    </row>
-    <row r="110" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F109" s="15"/>
+      <c r="G109" s="15"/>
+    </row>
+    <row r="110" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C110" s="29"/>
       <c r="D110" s="15"/>
       <c r="E110" s="15"/>
-    </row>
-    <row r="111" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F110" s="15"/>
+      <c r="G110" s="15"/>
+    </row>
+    <row r="111" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C111" s="29"/>
       <c r="D111" s="15"/>
       <c r="E111" s="15"/>
-    </row>
-    <row r="112" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F111" s="15"/>
+      <c r="G111" s="15"/>
+    </row>
+    <row r="112" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C112" s="29"/>
       <c r="D112" s="15"/>
       <c r="E112" s="15"/>
-    </row>
-    <row r="113" spans="3:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F112" s="15"/>
+      <c r="G112" s="15"/>
+    </row>
+    <row r="113" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C113" s="29"/>
       <c r="D113" s="15"/>
       <c r="E113" s="15"/>
-    </row>
-    <row r="114" spans="3:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F113" s="15"/>
+      <c r="G113" s="15"/>
+    </row>
+    <row r="114" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C114" s="29"/>
       <c r="D114" s="15"/>
       <c r="E114" s="15"/>
-    </row>
-    <row r="115" spans="3:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F114" s="15"/>
+      <c r="G114" s="15"/>
+    </row>
+    <row r="115" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C115" s="29"/>
       <c r="D115" s="15"/>
       <c r="E115" s="15"/>
-    </row>
-    <row r="116" spans="3:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F115" s="15"/>
+      <c r="G115" s="15"/>
+    </row>
+    <row r="116" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C116" s="29"/>
       <c r="D116" s="15"/>
       <c r="E116" s="15"/>
-    </row>
-    <row r="117" spans="3:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F116" s="15"/>
+      <c r="G116" s="15"/>
+    </row>
+    <row r="117" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C117" s="29"/>
       <c r="D117" s="15"/>
       <c r="E117" s="15"/>
-    </row>
-    <row r="118" spans="3:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F117" s="15"/>
+      <c r="G117" s="15"/>
+    </row>
+    <row r="118" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C118" s="29"/>
       <c r="D118" s="15"/>
       <c r="E118" s="15"/>
-    </row>
-    <row r="119" spans="3:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F118" s="15"/>
+      <c r="G118" s="15"/>
+    </row>
+    <row r="119" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C119" s="29"/>
     </row>
-    <row r="120" spans="3:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C120" s="29"/>
     </row>
-    <row r="121" spans="3:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C121" s="29"/>
     </row>
-    <row r="122" spans="3:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C122" s="29"/>
     </row>
-    <row r="123" spans="3:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C123" s="29"/>
     </row>
-    <row r="124" spans="3:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C124" s="29"/>
     </row>
-    <row r="125" spans="3:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C125" s="29"/>
     </row>
-    <row r="126" spans="3:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C126" s="29"/>
     </row>
-    <row r="127" spans="3:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C127" s="29"/>
     </row>
-    <row r="128" spans="3:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C128" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A55:H55"/>
-    <mergeCell ref="A99:H99"/>
+    <mergeCell ref="A55:J55"/>
+    <mergeCell ref="A99:J99"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4552,9 +4802,9 @@
   </sheetPr>
   <dimension ref="A1:I131"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1" sqref="K1:S1048576"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4573,7 +4823,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -4599,17 +4849,17 @@
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>62</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>71</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>11</v>
@@ -4618,7 +4868,7 @@
         <v>41803</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I2" s="31">
         <v>41803</v>
@@ -4626,7 +4876,7 @@
     </row>
     <row r="3" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>62</v>
@@ -4645,7 +4895,7 @@
         <v>41983</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I3" s="25">
         <v>41984</v>
@@ -4653,17 +4903,17 @@
     </row>
     <row r="4" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>62</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>81</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>11</v>
@@ -4672,7 +4922,7 @@
         <v>41983</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I4" s="25">
         <v>41984</v>
@@ -4680,17 +4930,17 @@
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>62</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>11</v>
@@ -4699,7 +4949,7 @@
         <v>41983</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I5" s="25">
         <v>41984</v>
@@ -4707,14 +4957,14 @@
     </row>
     <row r="6" spans="1:9" ht="66" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>62</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>42</v>
@@ -4726,7 +4976,7 @@
         <v>41983</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I6" s="25">
         <v>41984</v>
@@ -4734,7 +4984,7 @@
     </row>
     <row r="7" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>62</v>
@@ -4753,7 +5003,7 @@
         <v>41983</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I7" s="25">
         <v>41984</v>
@@ -4761,7 +5011,7 @@
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>63</v>
@@ -4780,7 +5030,7 @@
         <v>41725</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I8" s="27">
         <v>41725</v>
@@ -4788,7 +5038,7 @@
     </row>
     <row r="9" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>63</v>
@@ -4807,7 +5057,7 @@
         <v>41803</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I9" s="27">
         <v>41803</v>
@@ -4815,17 +5065,17 @@
     </row>
     <row r="10" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>63</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="13" t="s">
         <v>84</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>85</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>11</v>
@@ -4834,7 +5084,7 @@
         <v>41983</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I10" s="27">
         <v>41984</v>
@@ -4842,14 +5092,14 @@
     </row>
     <row r="11" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>64</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>60</v>
@@ -4861,7 +5111,7 @@
         <v>41983</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I11" s="26">
         <v>41984</v>
@@ -5206,14 +5456,14 @@
       <c r="G57" s="29"/>
     </row>
     <row r="58" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A58" s="39"/>
-      <c r="B58" s="39"/>
-      <c r="C58" s="40"/>
-      <c r="D58" s="40"/>
-      <c r="E58" s="40"/>
-      <c r="F58" s="40"/>
-      <c r="G58" s="40"/>
-      <c r="H58" s="40"/>
+      <c r="A58" s="43"/>
+      <c r="B58" s="43"/>
+      <c r="C58" s="44"/>
+      <c r="D58" s="44"/>
+      <c r="E58" s="44"/>
+      <c r="F58" s="44"/>
+      <c r="G58" s="44"/>
+      <c r="H58" s="44"/>
     </row>
     <row r="59" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C59" s="14"/>
@@ -5436,14 +5686,14 @@
       <c r="E101" s="15"/>
     </row>
     <row r="102" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A102" s="39"/>
-      <c r="B102" s="39"/>
-      <c r="C102" s="40"/>
-      <c r="D102" s="40"/>
-      <c r="E102" s="40"/>
-      <c r="F102" s="40"/>
-      <c r="G102" s="40"/>
-      <c r="H102" s="40"/>
+      <c r="A102" s="43"/>
+      <c r="B102" s="43"/>
+      <c r="C102" s="44"/>
+      <c r="D102" s="44"/>
+      <c r="E102" s="44"/>
+      <c r="F102" s="44"/>
+      <c r="G102" s="44"/>
+      <c r="H102" s="44"/>
     </row>
     <row r="103" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C103" s="16"/>
@@ -5588,13 +5838,13 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="12.6640625" style="24"/>
-    <col min="4" max="4" width="23" style="43" customWidth="1"/>
+    <col min="4" max="4" width="23" style="42" customWidth="1"/>
     <col min="5" max="5" width="25.21875" customWidth="1"/>
     <col min="8" max="8" width="15.109375" style="24" customWidth="1"/>
     <col min="9" max="9" width="12.6640625" style="24"/>
@@ -5605,12 +5855,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="40" t="s">
         <v>6</v>
       </c>
       <c r="E1" s="20" t="s">
@@ -5626,34 +5876,34 @@
         <v>5</v>
       </c>
       <c r="I1" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="K1" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="J1" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>101</v>
-      </c>
       <c r="L1" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B2" s="32" t="s">
         <v>64</v>
       </c>
       <c r="C2" s="37"/>
-      <c r="D2" s="42">
+      <c r="D2" s="41">
         <v>4201400015212</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F2" s="34" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G2" s="33"/>
       <c r="H2" s="36">
@@ -5664,29 +5914,29 @@
       </c>
       <c r="J2" s="33"/>
       <c r="K2" s="33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L2" s="34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M2" s="18"/>
     </row>
     <row r="3" spans="1:13" ht="73.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B3" s="32" t="s">
         <v>64</v>
       </c>
       <c r="C3" s="37"/>
-      <c r="D3" s="42">
+      <c r="D3" s="41">
         <v>4201400015213</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F3" s="34" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G3" s="33"/>
       <c r="H3" s="36">
@@ -5697,10 +5947,10 @@
       </c>
       <c r="J3" s="33"/>
       <c r="K3" s="33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L3" s="34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M3" s="18"/>
     </row>
